--- a/practice.xlsx
+++ b/practice.xlsx
@@ -9,6 +9,7 @@
     <x:sheet name="모니터" sheetId="2" r:id="rId2"/>
     <x:sheet name="키보드" sheetId="5" r:id="rId5"/>
     <x:sheet name="마우스" sheetId="7" r:id="rId7"/>
+    <x:sheet name="KBO_2023_타자_롯데" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -16,7 +17,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+  <x:si>
+    <x:t>삼성 S24C310 61cm IPS 모니터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vuty24F07VF FHD 리얼 75 모니터(일반)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94,900</x:t>
+  </x:si>
   <x:si>
     <x:t>LG 울트라기어 게이밍모니터 68.4cm</x:t>
   </x:si>
@@ -24,159 +37,138 @@
     <x:t>500,000</x:t>
   </x:si>
   <x:si>
+    <x:t>메디하임 FHD 32인치모니터 DX325 HDMI IPS패널 75HZ 광시야각 AMD freesync 베젤리스 게임용 사무용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S32BM701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>455,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 32QN650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>378,890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라HD 32UP830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>529,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M5 S32CM501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>329,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G5 C32G54T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297,640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 32MN500MW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230,050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GP750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>396,770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24ML600SW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 S27C310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알파스캔 AOC Q32V3S 75 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>229,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 F24T450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27MN430HW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172,990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27QN600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295,790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G3 S27AG300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43BM701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>567,990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24MN430HW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라HD 27UP550N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>408,890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27MR400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>178,790</x:t>
+  </x:si>
+  <x:si>
     <x:t>메디하임 FHD 27인치 모니터 X270 IPS패널 75HZ 광시야각 AMD freesync 로우블루라이트 베젤리스</x:t>
   </x:si>
   <x:si>
     <x:t>128,000</x:t>
   </x:si>
   <x:si>
-    <x:t>메디하임 FHD 32인치모니터 DX325 HDMI IPS패널 75HZ 광시야각 AMD freesync 베젤리스 게임용 사무용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179,800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S43BM700 LS43BM700U IPTV UHD 43인치 4K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>524,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S32BM701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>455,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 32QN650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372,410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 F24T450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라기어 27GP750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>396,770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라HD 32UP830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>598,890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M5 S32CM501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>309,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 32MN500MW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>238,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 24ML600SW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 S27C310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 오디세이 G5 C32G54T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297,710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알파스캔 AOC Q32V3S 75 무결점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>229,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 27MN430HW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>174,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 27QN600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295,790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 오디세이 G3 S27AG300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 24MN430HW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라HD 27UP550N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>396,800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S43BM701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>567,990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 27MR400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177,210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[메타콤] 22인치 모니터 MTM-22FT FHD 75Hz 사무용 CCTV 업무용 HDMI 지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로지텍 키보드 K120 NEW 블랙 USB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이노트 멀티 페어링 블루투스 키보드 + 키스킨 X-KEY 38BT 1개 화이트 X-KEY 38BT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,150</x:t>
-  </x:si>
-  <x:si>
     <x:t>로지텍 K380</x:t>
   </x:si>
   <x:si>
@@ -192,7 +184,19 @@
     <x:t>로지텍 로지텍G G913 텐키리스 클릭키</x:t>
   </x:si>
   <x:si>
-    <x:t>178,980</x:t>
+    <x:t>178,990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 AN94BT 무선 블루투스 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엠스톤 그루브 GV10 수제풀윤활 퀵스왑 104키 풀배열 기계식키보드 저소음밀키축 38g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164,000</x:t>
   </x:si>
   <x:si>
     <x:t>로지텍 로지텍G G913 Wireless 클릭키</x:t>
@@ -201,37 +205,37 @@
     <x:t>198,780</x:t>
   </x:si>
   <x:si>
+    <x:t>제닉스 STORMX TITAN SE 게이밍 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,300</x:t>
+  </x:si>
+  <x:si>
     <x:t>지클릭커 레트로 SPK 100 저소음 무선 블루투스 기계식 키보드</x:t>
   </x:si>
   <x:si>
     <x:t>59,800</x:t>
   </x:si>
   <x:si>
+    <x:t>로지텍 MX KEYS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96,580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COX CK87 게이트론 LED 게이밍 기계식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62,290</x:t>
+  </x:si>
+  <x:si>
     <x:t>앱코 K570 레인보우 무빙LED 기계식 게이밍 키보드</x:t>
   </x:si>
   <x:si>
     <x:t>35,000</x:t>
   </x:si>
   <x:si>
-    <x:t>앱코 AN94BT 무선 블루투스 기계식 키보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엠스톤 그루브 GV10 수제풀윤활 퀵스왑 104키 풀배열 기계식키보드 저소음밀키축 38g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>164,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COX CK87 게이트론 LED 게이밍 기계식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로지텍 MX KEYS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96,580</x:t>
+    <x:t>앱코 K517 레트로 기계식 키보드</x:t>
   </x:si>
   <x:si>
     <x:t>로지텍 K120 NEW Keyboard</x:t>
@@ -240,16 +244,13 @@
     <x:t>9,900</x:t>
   </x:si>
   <x:si>
-    <x:t>제닉스 STORMX TITAN SE 게이밍 키보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱코 K840 스퀘어 레트로 축교환 기계식 키보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52,900</x:t>
+    <x:t>앱코 K1924 RETRO GTMX NON-LED 가스켓 게이밍 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨이코스 씽크웨이 X VGN TV99 유무선 99배열 기계식 키보드</x:t>
   </x:si>
   <x:si>
     <x:t>HP오멘 게이밍 마우스+ 패드, 가벼운마우스</x:t>
@@ -258,10 +259,10 @@
     <x:t>39,000</x:t>
   </x:si>
   <x:si>
-    <x:t>씽크웨이 X VGN F1 유무선 잠자리 마우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79,900</x:t>
+    <x:t>삼성전자 삼성 SM-B1500QG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,800</x:t>
   </x:si>
   <x:si>
     <x:t>로지텍 로지텍G G304 LIGHTSPEED WIRELESS</x:t>
@@ -276,49 +277,64 @@
     <x:t>17,010</x:t>
   </x:si>
   <x:si>
+    <x:t>로지텍 MX MASTER 3S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112,140</x:t>
+  </x:si>
+  <x:si>
     <x:t>로지텍 로지텍G G102 2세대 LIGHTSYNC</x:t>
   </x:si>
   <x:si>
+    <x:t>20,290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 저소음 3MODE 무선 마우스 APM01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,900</x:t>
+  </x:si>
+  <x:si>
     <x:t>로지텍G G304 LIGHTSPEED 게이밍 마우스</x:t>
   </x:si>
   <x:si>
     <x:t>16,900</x:t>
   </x:si>
   <x:si>
+    <x:t>RAZER DeathAdder V2 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 시그니처 M650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36,550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TG삼보 TG-TM618G HEALING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,290</x:t>
+  </x:si>
+  <x:si>
     <x:t>지클릭커 쓸떼많은 다쿠아즈 무소음 무선 블루투스 마우스</x:t>
   </x:si>
   <x:si>
     <x:t>14,900</x:t>
   </x:si>
   <x:si>
-    <x:t>앱코 저소음 3MODE 무선 마우스 APM01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로지텍 시그니처 M650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36,550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAZER DeathAdder V2 Pro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,000</x:t>
-  </x:si>
-  <x:si>
     <x:t>로지텍 LIFT 무선 마우스</x:t>
   </x:si>
   <x:si>
-    <x:t>70,500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로지텍 MX MASTER 3S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110,080</x:t>
+    <x:t>72,830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제닉스 STORMX VM3 무선 버티컬마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38,280</x:t>
   </x:si>
   <x:si>
     <x:t>로지텍 M331 무소음</x:t>
@@ -327,16 +343,97 @@
     <x:t>22,950</x:t>
   </x:si>
   <x:si>
-    <x:t>TG삼보 TG-TM618G HEALING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32,290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청연엠엔에스 NAVEE NV117-PPT350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,230</x:t>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전준우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.koreabaseball.com/Record/Player/HitterDetail/Basic.aspx?playerId=78513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롯데</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안치홍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.koreabaseball.com/Record/Player/HitterDetail/Basic.aspx?playerId=79608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -754,143 +851,143 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -915,122 +1012,122 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1090,87 +1187,213 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:Q2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:17">
+      <x:c r="A1" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:17">
+      <x:c r="A2" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>138</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/practice.xlsx
+++ b/practice.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <x:si>
     <x:t>삼성 S24C310 61cm IPS 모니터</x:t>
   </x:si>
@@ -341,6 +341,57 @@
   </x:si>
   <x:si>
     <x:t>22,950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선수명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선수명 Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팀명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AVG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SF</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -1345,55 +1396,108 @@
     </x:row>
     <x:row r="2" spans="1:17">
       <x:c r="A2" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17">
+      <x:c r="A3" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>138</x:v>
+      <x:c r="E3" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>155</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/practice.xlsx
+++ b/practice.xlsx
@@ -10,6 +10,7 @@
     <x:sheet name="키보드" sheetId="5" r:id="rId5"/>
     <x:sheet name="마우스" sheetId="7" r:id="rId7"/>
     <x:sheet name="KBO_2023_타자_롯데" sheetId="8" r:id="rId8"/>
+    <x:sheet name="KBO_2023_타자_롯데_김씨" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <x:si>
     <x:t>삼성 S24C310 61cm IPS 모니터</x:t>
   </x:si>
@@ -485,6 +486,48 @@
   </x:si>
   <x:si>
     <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김민석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.koreabaseball.com/Record/Player/HitterDetail/Basic.aspx?playerId=53554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불일치</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1500,6 +1543,97 @@
         <x:v>155</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:17">
+      <x:c r="A4" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:Q3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:17">
+      <x:c r="B1" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:17">
+      <x:c r="B2" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17">
+      <x:c r="A3" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
